--- a/Win64/Debug/CSV/master/水道使用量・水道料金明細.xlsx
+++ b/Win64/Debug/CSV/master/水道使用量・水道料金明細.xlsx
@@ -1,27 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_my_\Documents\GitHub\Repositories\Projects\Embarcadero\Projects\WaterCalculator\Win64\Debug\CSV\master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CCB73F-4E66-4752-838B-09B496DB689F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A896E62-96E1-4036-A5E7-67FDD52027B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="令和○○年度" sheetId="4" r:id="rId1"/>
-    <sheet name="201号室" sheetId="1" r:id="rId2"/>
+    <sheet name="データ一覧" sheetId="5" r:id="rId1"/>
+    <sheet name="301号室" sheetId="8" r:id="rId2"/>
+    <sheet name="302号室" sheetId="9" r:id="rId3"/>
+    <sheet name="303号室" sheetId="10" r:id="rId4"/>
+    <sheet name="305号室" sheetId="11" r:id="rId5"/>
+    <sheet name="401号室" sheetId="12" r:id="rId6"/>
+    <sheet name="402号室" sheetId="14" r:id="rId7"/>
+    <sheet name="403号室" sheetId="15" r:id="rId8"/>
+    <sheet name="405号室" sheetId="16" r:id="rId9"/>
+    <sheet name="501号室" sheetId="17" r:id="rId10"/>
+    <sheet name="502号室" sheetId="18" r:id="rId11"/>
+    <sheet name="503号室" sheetId="19" r:id="rId12"/>
+    <sheet name="505号室" sheetId="20" r:id="rId13"/>
+    <sheet name="601号室" sheetId="21" r:id="rId14"/>
+    <sheet name="602号室" sheetId="22" r:id="rId15"/>
+    <sheet name="603号室" sheetId="23" r:id="rId16"/>
+    <sheet name="605号室" sheetId="24" r:id="rId17"/>
+    <sheet name="701号室" sheetId="25" r:id="rId18"/>
+    <sheet name="702号室" sheetId="26" r:id="rId19"/>
+    <sheet name="703号室" sheetId="27" r:id="rId20"/>
+    <sheet name="705号室" sheetId="28" r:id="rId21"/>
+    <sheet name="801号室" sheetId="29" r:id="rId22"/>
+    <sheet name="802号室" sheetId="30" r:id="rId23"/>
+    <sheet name="803号室" sheetId="31" r:id="rId24"/>
+    <sheet name="805号室" sheetId="32" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="16">
   <si>
     <t>号</t>
     <rPh sb="0" eb="1">
@@ -99,16 +132,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>請求額</t>
-    <rPh sb="0" eb="2">
-      <t>セイキュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>様</t>
     <rPh sb="0" eb="1">
       <t>サマ</t>
@@ -125,13 +148,6 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>クミアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>円</t>
-    <rPh sb="0" eb="1">
-      <t>エン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -196,21 +212,14 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>R元年度</t>
-    <rPh sb="1" eb="2">
-      <t>ガン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ネンド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="[Blue][=0]General;[Red][=0]General"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -298,7 +307,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -505,13 +514,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,12 +610,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -584,11 +647,174 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -921,20 +1147,571 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F09D0A-135E-45A4-8AF9-5CDC11637A60}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50092DC0-91DC-432B-A772-5F53E257A378}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="24"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A3" s="25"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="25"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="25"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="25"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="25"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="25"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="25"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="27"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="25"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="25"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="25"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="25"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="25"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="25"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="27"/>
+      <c r="AF4" s="32"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A5" s="25"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="25"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="25"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="25"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="25"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="25"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="25"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="27"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A6" s="25"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="25"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="25"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="25"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="25"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="25"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="25"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="27"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A7" s="25"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="25"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="25"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="25"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="25"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="25"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="25"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="27"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A8" s="25"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="25"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="25"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="25"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="25"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="25"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="25"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="27"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A9" s="25"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="25"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="25"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="25"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="25"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="25"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="25"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="27"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A10" s="25"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="25"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="25"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="25"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="25"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="25"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="25"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="27"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A11" s="25"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="25"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="25"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="25"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="25"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="25"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="25"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="27"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A12" s="25"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="25"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="25"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="25"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="25"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="25"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="25"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="27"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A13" s="25"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="25"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="25"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="25"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="25"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="25"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="25"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="27"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A14" s="25"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="25"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="25"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="25"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="25"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="25"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="25"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="27"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A15" s="25"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="25"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="25"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="25"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="25"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="25"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="25"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="27"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A16" s="25"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="25"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="25"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="25"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="25"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="25"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="25"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="27"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A17" s="25"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="25"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="25"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="25"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="25"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="25"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="25"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="27"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A18" s="25"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="25"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="25"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="25"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="25"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="25"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="25"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="27"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A19" s="25"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="25"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="25"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="25"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="25"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="25"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="25"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="27"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A20" s="25"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="25"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="25"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="25"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="25"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="25"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="25"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="27"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A21" s="25"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="25"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="25"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="25"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="25"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="25"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="25"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="27"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A22" s="25"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="25"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="25"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="25"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="25"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="25"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="25"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="27"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A23" s="25"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="25"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="25"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="25"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="25"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="25"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="25"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="27"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A24" s="25"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="25"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="25"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="25"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="25"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="25"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="25"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="27"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A25" s="25"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="25"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="25"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="25"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="25"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="25"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="25"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="27"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A26" s="25"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="25"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="25"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="25"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="25"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="25"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="25"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="27"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A27" s="25"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="25"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="25"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="25"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="25"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="25"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="25"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="27"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A28" s="25"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="25"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="25"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="25"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="25"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="25"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="25"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="27"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A29" s="25"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="25"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="25"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="25"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="25"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="25"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="25"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="27"/>
+    </row>
+    <row r="30" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="28"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="30"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CC5D17-968D-4E01-AFD2-DE2FE3B7C018}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A2:G33"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
@@ -948,7 +1725,7 @@
   <sheetData>
     <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -961,18 +1738,25 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <f>データ一覧!A11</f>
+        <v>0</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="14">
+        <f>データ一覧!B11</f>
+        <v>0</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E7" s="2" t="s">
-        <v>18</v>
+      <c r="E7" s="2">
+        <f>データ一覧!A1</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -986,59 +1770,101 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="17"/>
+      <c r="D10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11">
+        <f>データ一覧!E11</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f>データ一覧!F11</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="18"/>
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <f>データ一覧!I11</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f>データ一覧!J11</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="18"/>
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <f>データ一覧!M11</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <f>データ一覧!N11</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <f>データ一覧!Q11</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <f>データ一覧!R11</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="E14" s="12">
+        <f>データ一覧!U11</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f>データ一覧!V11</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="19"/>
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <f>データ一覧!Y11</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>データ一覧!Z11</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="19"/>
+      <c r="E16" s="13">
+        <f>データ一覧!AA11</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>データ一覧!AB11</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
+      <c r="A18" s="20"/>
     </row>
     <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
+      <c r="A19" s="20"/>
     </row>
     <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1053,28 +1879,4895 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="20">
-        <v>42000</v>
-      </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="19"/>
+      <c r="D22" s="18">
+        <f>データ一覧!AC11</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f>データ一覧!AB11</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>データ一覧!AF11</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="12"/>
+      <c r="E26" s="34">
+        <f>データ一覧!AD11</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="35">
+        <f>データ一覧!AE11</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
     </row>
     <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="expression" dxfId="15" priority="1">
+      <formula>$E$26= "請求額"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F42393-3B6E-4F9F-90D4-7D669A098F45}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A2:G33"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <f>データ一覧!A12</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <f>データ一覧!B12</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="2">
+        <f>データ一覧!A1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11">
+        <f>データ一覧!E12</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f>データ一覧!F12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <f>データ一覧!I12</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f>データ一覧!J12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <f>データ一覧!M12</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <f>データ一覧!N12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <f>データ一覧!Q12</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <f>データ一覧!R12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12">
+        <f>データ一覧!U12</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f>データ一覧!V12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <f>データ一覧!Y12</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>データ一覧!Z12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
+        <f>データ一覧!AA12</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>データ一覧!AB12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="18">
+        <f>データ一覧!AC12</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f>データ一覧!AB12</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>データ一覧!AF12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="34">
+        <f>データ一覧!AD12</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="35">
+        <f>データ一覧!AE12</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="expression" dxfId="14" priority="1">
+      <formula>$E$26= "請求額"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A830C7-E869-459A-9AA4-F9D5C9E06932}">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A2:G33"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <f>データ一覧!A13</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <f>データ一覧!B13</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="2">
+        <f>データ一覧!A1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11">
+        <f>データ一覧!E13</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f>データ一覧!F13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <f>データ一覧!I13</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f>データ一覧!J13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <f>データ一覧!M13</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <f>データ一覧!N13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <f>データ一覧!Q13</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <f>データ一覧!R13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12">
+        <f>データ一覧!U13</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f>データ一覧!V13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <f>データ一覧!Y13</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>データ一覧!Z13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
+        <f>データ一覧!AA13</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>データ一覧!AB13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="18">
+        <f>データ一覧!AC13</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f>データ一覧!AB13</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>データ一覧!AF13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="34">
+        <f>データ一覧!AD13</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="35">
+        <f>データ一覧!AE13</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="expression" dxfId="13" priority="1">
+      <formula>$E$26= "請求額"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233E4372-6645-4C02-AFFD-C3D6C216E41F}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A2:G33"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <f>データ一覧!A14</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <f>データ一覧!B14</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="2">
+        <f>データ一覧!A1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11">
+        <f>データ一覧!E14</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f>データ一覧!F14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <f>データ一覧!I14</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f>データ一覧!J14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <f>データ一覧!M14</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <f>データ一覧!N14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <f>データ一覧!Q14</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <f>データ一覧!R14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12">
+        <f>データ一覧!U14</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f>データ一覧!V14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <f>データ一覧!Y14</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>データ一覧!Z14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
+        <f>データ一覧!AA14</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>データ一覧!AB14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="18">
+        <f>データ一覧!AC14</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f>データ一覧!AB14</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>データ一覧!AF14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="34">
+        <f>データ一覧!AD14</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="35">
+        <f>データ一覧!AE14</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="expression" dxfId="12" priority="1">
+      <formula>$E$26= "請求額"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF37A675-A79D-4CE6-A761-FE228DC44647}">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A2:G33"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <f>データ一覧!A15</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <f>データ一覧!B15</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="2">
+        <f>データ一覧!A1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11">
+        <f>データ一覧!E15</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f>データ一覧!F15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <f>データ一覧!I15</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f>データ一覧!J15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <f>データ一覧!M15</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <f>データ一覧!N15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <f>データ一覧!Q15</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <f>データ一覧!R15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12">
+        <f>データ一覧!U15</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f>データ一覧!V15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <f>データ一覧!Y15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>データ一覧!Z15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
+        <f>データ一覧!AA15</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>データ一覧!AB15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="18">
+        <f>データ一覧!AC15</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f>データ一覧!AB15</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>データ一覧!AF15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="34">
+        <f>データ一覧!AD15</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="35">
+        <f>データ一覧!AE15</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>$E$26= "請求額"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5691916-6833-4BA6-8841-491DB7F0E51A}">
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="A2:G33"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <f>データ一覧!A16</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <f>データ一覧!B16</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="2">
+        <f>データ一覧!A1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11">
+        <f>データ一覧!E16</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f>データ一覧!F16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <f>データ一覧!I16</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f>データ一覧!J16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <f>データ一覧!M16</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <f>データ一覧!N16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <f>データ一覧!Q16</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <f>データ一覧!R16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12">
+        <f>データ一覧!U16</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f>データ一覧!V16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <f>データ一覧!Y16</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>データ一覧!Z16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
+        <f>データ一覧!AA16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>データ一覧!AB16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="18">
+        <f>データ一覧!AC16</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f>データ一覧!AB16</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>データ一覧!AF16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="34">
+        <f>データ一覧!AD16</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="35">
+        <f>データ一覧!AE16</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>$E$26= "請求額"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB500F6-3A6C-42E4-A403-C06EA088E67B}">
+  <sheetPr codeName="Sheet16"/>
+  <dimension ref="A2:G33"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <f>データ一覧!A17</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <f>データ一覧!B17</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="2">
+        <f>データ一覧!A1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11">
+        <f>データ一覧!E17</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f>データ一覧!F17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <f>データ一覧!I17</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f>データ一覧!J17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <f>データ一覧!M17</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <f>データ一覧!N17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <f>データ一覧!Q17</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <f>データ一覧!R17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12">
+        <f>データ一覧!U17</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f>データ一覧!V17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <f>データ一覧!Y17</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>データ一覧!Z17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
+        <f>データ一覧!AA17</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>データ一覧!AB17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="18">
+        <f>データ一覧!AC17</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f>データ一覧!AB17</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>データ一覧!AF17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="34">
+        <f>データ一覧!AD17</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="35">
+        <f>データ一覧!AE17</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>$E$26= "請求額"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1273F3-8F9B-41E4-9A02-0B61613F5F5A}">
+  <sheetPr codeName="Sheet17"/>
+  <dimension ref="A2:G33"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <f>データ一覧!A18</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <f>データ一覧!B18</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="2">
+        <f>データ一覧!A1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11">
+        <f>データ一覧!E18</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f>データ一覧!F18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <f>データ一覧!I18</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f>データ一覧!J18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <f>データ一覧!M18</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <f>データ一覧!N18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <f>データ一覧!Q18</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <f>データ一覧!R18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12">
+        <f>データ一覧!U18</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f>データ一覧!V18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <f>データ一覧!Y18</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>データ一覧!Z18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
+        <f>データ一覧!AA18</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>データ一覧!AB18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="18">
+        <f>データ一覧!AC18</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f>データ一覧!AB18</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>データ一覧!AF18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="34">
+        <f>データ一覧!AD18</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="35">
+        <f>データ一覧!AE18</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>$E$26= "請求額"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2865FFA6-9EC0-4C88-B5FE-AE79FA630C54}">
+  <sheetPr codeName="Sheet18"/>
+  <dimension ref="A2:G33"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <f>データ一覧!A19</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <f>データ一覧!B19</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="2">
+        <f>データ一覧!A1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11">
+        <f>データ一覧!E19</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f>データ一覧!F19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <f>データ一覧!I19</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f>データ一覧!J19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <f>データ一覧!M19</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <f>データ一覧!N19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <f>データ一覧!Q19</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <f>データ一覧!R19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12">
+        <f>データ一覧!U19</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f>データ一覧!V19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <f>データ一覧!Y19</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>データ一覧!Z19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
+        <f>データ一覧!AA19</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>データ一覧!AB19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="18">
+        <f>データ一覧!AC19</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f>データ一覧!AB19</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>データ一覧!AF19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="34">
+        <f>データ一覧!AD19</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="35">
+        <f>データ一覧!AE19</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$E$26= "請求額"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7D771D-EF64-4E67-8E67-D0265FFB0E91}">
+  <sheetPr codeName="Sheet19"/>
+  <dimension ref="A2:G33"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <f>データ一覧!A20</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <f>データ一覧!B20</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="2">
+        <f>データ一覧!A1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11">
+        <f>データ一覧!E20</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f>データ一覧!F20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <f>データ一覧!I20</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f>データ一覧!J20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <f>データ一覧!M20</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <f>データ一覧!N20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <f>データ一覧!Q20</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <f>データ一覧!R20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12">
+        <f>データ一覧!U20</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f>データ一覧!V20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <f>データ一覧!Y20</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>データ一覧!Z20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
+        <f>データ一覧!AA20</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>データ一覧!AB20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="18">
+        <f>データ一覧!AC20</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f>データ一覧!AB20</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>データ一覧!AF20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="34">
+        <f>データ一覧!AD20</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="35">
+        <f>データ一覧!AE20</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>$E$26= "請求額"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB379666-8719-4CF1-A5A3-B9358ADB0B22}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A2:G33"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <f>データ一覧!A3</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <f>データ一覧!B3</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="2">
+        <f>データ一覧!A1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11">
+        <f>データ一覧!E3</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f>データ一覧!F3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <f>データ一覧!I3</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f>データ一覧!J3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <f>データ一覧!M3</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <f>データ一覧!N3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <f>データ一覧!Q3</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <f>データ一覧!R3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12">
+        <f>データ一覧!U3</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f>データ一覧!V3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <f>データ一覧!Y3</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>データ一覧!Z3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
+        <f>データ一覧!AA3</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>データ一覧!AB3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="18">
+        <f>データ一覧!AC3</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f>データ一覧!AB3</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>データ一覧!AF3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="34">
+        <f>データ一覧!AD3</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="35">
+        <f>データ一覧!AE3</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="expression" dxfId="23" priority="1">
+      <formula>$E$26= "請求額"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B97933D-DB27-482D-A710-141AF8BFA446}">
+  <sheetPr codeName="Sheet20"/>
+  <dimension ref="A2:G33"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <f>データ一覧!A21</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <f>データ一覧!B21</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="2">
+        <f>データ一覧!A1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11">
+        <f>データ一覧!E21</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f>データ一覧!F21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <f>データ一覧!I21</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f>データ一覧!J21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <f>データ一覧!M21</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <f>データ一覧!N21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <f>データ一覧!Q21</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <f>データ一覧!R21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12">
+        <f>データ一覧!U21</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f>データ一覧!V21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <f>データ一覧!Y21</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>データ一覧!Z21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
+        <f>データ一覧!AA21</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>データ一覧!AB21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="18">
+        <f>データ一覧!AC21</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f>データ一覧!AB21</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>データ一覧!AF21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="34">
+        <f>データ一覧!AD21</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="35">
+        <f>データ一覧!AE21</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>$E$26= "請求額"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7325B710-3EF1-4EF1-AD56-08F54CA65595}">
+  <sheetPr codeName="Sheet21"/>
+  <dimension ref="A2:G33"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <f>データ一覧!A22</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <f>データ一覧!B22</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="2">
+        <f>データ一覧!A1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11">
+        <f>データ一覧!E22</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f>データ一覧!F22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <f>データ一覧!I22</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f>データ一覧!J22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <f>データ一覧!M22</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <f>データ一覧!N22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <f>データ一覧!Q22</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <f>データ一覧!R22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12">
+        <f>データ一覧!U22</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f>データ一覧!V22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <f>データ一覧!Y22</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>データ一覧!Z22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
+        <f>データ一覧!AA22</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>データ一覧!AB22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="18">
+        <f>データ一覧!AC22</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f>データ一覧!AB22</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>データ一覧!AF22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="34">
+        <f>データ一覧!AD22</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="35">
+        <f>データ一覧!AE22</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$E$26= "請求額"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC31E47-AD58-4662-B6A2-834809975F01}">
+  <sheetPr codeName="Sheet22"/>
+  <dimension ref="A2:G33"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <f>データ一覧!A23</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <f>データ一覧!B23</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="2">
+        <f>データ一覧!A1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11">
+        <f>データ一覧!E23</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f>データ一覧!F23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <f>データ一覧!I23</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f>データ一覧!J23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <f>データ一覧!M23</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <f>データ一覧!N23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <f>データ一覧!Q23</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <f>データ一覧!R23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12">
+        <f>データ一覧!U23</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f>データ一覧!V23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <f>データ一覧!Y23</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>データ一覧!Z23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
+        <f>データ一覧!AA23</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>データ一覧!AB23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="18">
+        <f>データ一覧!AC23</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f>データ一覧!AB23</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>データ一覧!AF23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="34">
+        <f>データ一覧!AD23</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="35">
+        <f>データ一覧!AE23</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$E$26= "請求額"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B3C3CB-E666-4B2A-9AD9-57229389FD65}">
+  <sheetPr codeName="Sheet23"/>
+  <dimension ref="A2:G33"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <f>データ一覧!A24</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <f>データ一覧!B24</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="2">
+        <f>データ一覧!A1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11">
+        <f>データ一覧!E24</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f>データ一覧!F24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <f>データ一覧!I24</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f>データ一覧!J24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <f>データ一覧!M24</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <f>データ一覧!N24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <f>データ一覧!Q24</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <f>データ一覧!R24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12">
+        <f>データ一覧!U24</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f>データ一覧!V24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <f>データ一覧!Y24</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>データ一覧!Z24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
+        <f>データ一覧!AA24</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>データ一覧!AB24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="18">
+        <f>データ一覧!AC24</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f>データ一覧!AB24</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>データ一覧!AF24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="34">
+        <f>データ一覧!AD24</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="35">
+        <f>データ一覧!AE24</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$E$26= "請求額"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF2C8CC-A3C5-4AF9-823E-E5AAA49638CC}">
+  <sheetPr codeName="Sheet24"/>
+  <dimension ref="A2:G33"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <f>データ一覧!A25</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <f>データ一覧!B25</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="2">
+        <f>データ一覧!A1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11">
+        <f>データ一覧!E25</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f>データ一覧!F25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <f>データ一覧!I25</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f>データ一覧!J25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <f>データ一覧!M25</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <f>データ一覧!N25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <f>データ一覧!Q25</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <f>データ一覧!R25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12">
+        <f>データ一覧!U25</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f>データ一覧!V25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <f>データ一覧!Y25</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>データ一覧!Z25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
+        <f>データ一覧!AA25</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>データ一覧!AB25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="18">
+        <f>データ一覧!AC25</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f>データ一覧!AB25</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>データ一覧!AF25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="34">
+        <f>データ一覧!AD25</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="35">
+        <f>データ一覧!AE25</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$E$26= "請求額"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76119069-BCBC-4433-8F89-74F50ACAE74D}">
+  <sheetPr codeName="Sheet25"/>
+  <dimension ref="A2:G33"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <f>データ一覧!A26</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <f>データ一覧!B26</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="2">
+        <f>データ一覧!A1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11">
+        <f>データ一覧!E26</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f>データ一覧!F26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <f>データ一覧!I26</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f>データ一覧!J26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <f>データ一覧!M26</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <f>データ一覧!N26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <f>データ一覧!Q26</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <f>データ一覧!R26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12">
+        <f>データ一覧!U26</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f>データ一覧!V26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <f>データ一覧!Y26</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>データ一覧!Z26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
+        <f>データ一覧!AA26</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>データ一覧!AB26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="18">
+        <f>データ一覧!AC26</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f>データ一覧!AB26</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>データ一覧!AF26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="34">
+        <f>データ一覧!AD26</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="35">
+        <f>データ一覧!AE26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$E$26= "請求額"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EE065F-61A9-4BA8-AECB-A4BCA3A6E458}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A2:G33"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <f>データ一覧!A4</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <f>データ一覧!B4</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="2">
+        <f>データ一覧!A1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11">
+        <f>データ一覧!E4</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f>データ一覧!F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <f>データ一覧!I4</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f>データ一覧!J4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <f>データ一覧!M4</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <f>データ一覧!N4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <f>データ一覧!Q4</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <f>データ一覧!R4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12">
+        <f>データ一覧!U4</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f>データ一覧!V4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <f>データ一覧!Y4</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>データ一覧!Z4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
+        <f>データ一覧!AA4</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>データ一覧!AB4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="18">
+        <f>データ一覧!AC4</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f>データ一覧!AB4</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>データ一覧!AF4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="34">
+        <f>データ一覧!AD4</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="35">
+        <f>データ一覧!AE4</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="expression" dxfId="22" priority="1">
+      <formula>$E$26= "請求額"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96320EE8-1AD8-4248-87D1-896D7F32F3CE}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A2:G33"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <f>データ一覧!A5</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <f>データ一覧!B5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="2">
+        <f>データ一覧!A1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11">
+        <f>データ一覧!E5</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f>データ一覧!F5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <f>データ一覧!I5</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f>データ一覧!J5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <f>データ一覧!M5</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <f>データ一覧!N5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <f>データ一覧!Q5</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <f>データ一覧!R5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12">
+        <f>データ一覧!U5</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f>データ一覧!V5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <f>データ一覧!Y5</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>データ一覧!Z5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
+        <f>データ一覧!AA5</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>データ一覧!AB5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="18">
+        <f>データ一覧!AC5</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f>データ一覧!AB5</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>データ一覧!AF5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="34">
+        <f>データ一覧!AD5</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="35">
+        <f>データ一覧!AE5</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="expression" dxfId="21" priority="1">
+      <formula>$E$26= "請求額"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71E3E67-99E9-45F1-8AC6-D4A051DF5D87}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A2:G33"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <f>データ一覧!A6</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <f>データ一覧!B6</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="2">
+        <f>データ一覧!A1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11">
+        <f>データ一覧!E6</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f>データ一覧!F6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <f>データ一覧!I6</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f>データ一覧!J6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <f>データ一覧!M6</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <f>データ一覧!N6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <f>データ一覧!Q6</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <f>データ一覧!R6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12">
+        <f>データ一覧!U6</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f>データ一覧!V6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <f>データ一覧!Y6</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>データ一覧!Z6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
+        <f>データ一覧!AA6</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>データ一覧!AB6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="18">
+        <f>データ一覧!AC6</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f>データ一覧!AB6</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>データ一覧!AF6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="34">
+        <f>データ一覧!AD5</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="35">
+        <f>データ一覧!AE5</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="expression" dxfId="20" priority="1">
+      <formula>$E$26= "請求額"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867FB0E0-0C4E-4285-8829-6E6AA4488F17}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A2:G33"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <f>データ一覧!A7</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <f>データ一覧!B7</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="2">
+        <f>データ一覧!A1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11">
+        <f>データ一覧!E7</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f>データ一覧!F7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <f>データ一覧!I7</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f>データ一覧!J7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <f>データ一覧!M7</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <f>データ一覧!N7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <f>データ一覧!Q7</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <f>データ一覧!R7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12">
+        <f>データ一覧!U7</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f>データ一覧!V7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <f>データ一覧!Y7</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>データ一覧!Z7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
+        <f>データ一覧!AA7</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>データ一覧!AB7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="18">
+        <f>データ一覧!AC7</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f>データ一覧!AB7</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>データ一覧!AF7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="34">
+        <f>データ一覧!AD7</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="35">
+        <f>データ一覧!AE7</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="expression" dxfId="19" priority="1">
+      <formula>$E$26= "請求額"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F8B499-1704-4978-AA7A-CA439ADAA2C8}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A2:G33"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <f>データ一覧!A8</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <f>データ一覧!B8</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="2">
+        <f>データ一覧!A1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11">
+        <f>データ一覧!E8</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f>データ一覧!F8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <f>データ一覧!I8</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f>データ一覧!J8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <f>データ一覧!M8</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <f>データ一覧!N8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <f>データ一覧!Q8</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <f>データ一覧!R8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12">
+        <f>データ一覧!U8</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f>データ一覧!V8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <f>データ一覧!Y8</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>データ一覧!Z8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
+        <f>データ一覧!AA8</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>データ一覧!AB8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="18">
+        <f>データ一覧!AC8</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f>データ一覧!AB8</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>データ一覧!AF8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="34">
+        <f>データ一覧!AD8</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="35">
+        <f>データ一覧!AE8</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="expression" dxfId="18" priority="1">
+      <formula>$E$26= "請求額"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4CF6C5-787B-4EE1-8E8D-68FA4C930DD2}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A2:G33"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <f>データ一覧!A9</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <f>データ一覧!B9</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="2">
+        <f>データ一覧!A1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11">
+        <f>データ一覧!E9</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f>データ一覧!F9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <f>データ一覧!I9</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f>データ一覧!J9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <f>データ一覧!M9</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <f>データ一覧!N9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <f>データ一覧!Q9</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <f>データ一覧!R9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12">
+        <f>データ一覧!U9</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f>データ一覧!V9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <f>データ一覧!Y9</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>データ一覧!Z9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
+        <f>データ一覧!AA9</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>データ一覧!AB9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="18">
+        <f>データ一覧!AC9</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f>データ一覧!AB9</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>データ一覧!AF9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="34">
+        <f>データ一覧!AD9</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="35">
+        <f>データ一覧!AE9</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="expression" dxfId="17" priority="1">
+      <formula>$E$26= "請求額"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABB3446-0640-4F70-9518-4A7F09E258B2}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A2:G33"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <f>データ一覧!A10</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <f>データ一覧!B10</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="2">
+        <f>データ一覧!A1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11">
+        <f>データ一覧!E10</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f>データ一覧!F10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <f>データ一覧!I10</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f>データ一覧!J10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <f>データ一覧!M10</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <f>データ一覧!N10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <f>データ一覧!Q10</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <f>データ一覧!R10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12">
+        <f>データ一覧!U10</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f>データ一覧!V10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <f>データ一覧!Y10</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>データ一覧!Z10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
+        <f>データ一覧!AA10</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>データ一覧!AB10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="18">
+        <f>データ一覧!AC10</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f>データ一覧!AB10</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>データ一覧!AF10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="34">
+        <f>データ一覧!AD10</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="35">
+        <f>データ一覧!AE10</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="expression" dxfId="16" priority="1">
+      <formula>$E$26= "請求額"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
